--- a/excel/region_32_VOC.xlsx
+++ b/excel/region_32_VOC.xlsx
@@ -429,210 +429,210 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>25.44507960840113</v>
+        <v>18.4163600498388</v>
       </c>
       <c r="B2">
-        <v>9.378379126111462</v>
+        <v>5.999821059517091</v>
       </c>
       <c r="C2">
-        <v>29.8029915210309</v>
+        <v>19.74991856568346</v>
       </c>
       <c r="D2">
-        <v>15.73987542129222</v>
+        <v>11.07211508532435</v>
       </c>
       <c r="E2">
-        <v>21.71344622735159</v>
+        <v>15.40378456795306</v>
       </c>
       <c r="F2">
-        <v>31.45787442841092</v>
+        <v>19.47950733216679</v>
       </c>
       <c r="G2">
-        <v>22.0275770638289</v>
+        <v>17.92804162775703</v>
       </c>
       <c r="H2">
-        <v>21.17667124779209</v>
+        <v>16.20011676656204</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>15.25758426513319</v>
+        <v>6.754118407961906</v>
       </c>
       <c r="B3">
-        <v>7.521275907769636</v>
+        <v>3.691089741102661</v>
       </c>
       <c r="C3">
-        <v>33.66543575940923</v>
+        <v>10.2418416402136</v>
       </c>
       <c r="D3">
-        <v>12.90718752010933</v>
+        <v>4.781747711466068</v>
       </c>
       <c r="E3">
-        <v>14.66825807054525</v>
+        <v>5.673240772067674</v>
       </c>
       <c r="F3">
-        <v>15.89239860782941</v>
+        <v>12.18413296019788</v>
       </c>
       <c r="G3">
-        <v>15.95525627005717</v>
+        <v>4.158656190454072</v>
       </c>
       <c r="H3">
-        <v>14.65578592721031</v>
+        <v>4.476948963156598</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>16.17314272973088</v>
+        <v>11.716181663562</v>
       </c>
       <c r="B4">
-        <v>6.534787495062531</v>
+        <v>6.948349942960384</v>
       </c>
       <c r="C4">
-        <v>15.17713853514483</v>
+        <v>13.14248068430594</v>
       </c>
       <c r="D4">
-        <v>16.05330723607284</v>
+        <v>12.02848558881112</v>
       </c>
       <c r="E4">
-        <v>13.72865092033988</v>
+        <v>9.88549481925922</v>
       </c>
       <c r="F4">
-        <v>11.76691734500921</v>
+        <v>8.699148793891792</v>
       </c>
       <c r="G4">
-        <v>11.32336755930501</v>
+        <v>7.74075405605533</v>
       </c>
       <c r="H4">
-        <v>15.3146450717598</v>
+        <v>10.19081618477783</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>9.589212673667921</v>
+        <v>1.52223568475383</v>
       </c>
       <c r="B5">
-        <v>5.2552025879998</v>
+        <v>2.36846076503203</v>
       </c>
       <c r="C5">
-        <v>9.863696541264034</v>
+        <v>5.141030281206501</v>
       </c>
       <c r="D5">
-        <v>12.12727948735451</v>
+        <v>3.486897215716094</v>
       </c>
       <c r="E5">
-        <v>10.15855390740522</v>
+        <v>2.243559090098596</v>
       </c>
       <c r="F5">
-        <v>12.47834057747505</v>
+        <v>1.871446617326836</v>
       </c>
       <c r="G5">
-        <v>6.811608020779722</v>
+        <v>3.853496821832894</v>
       </c>
       <c r="H5">
-        <v>11.62138727482436</v>
+        <v>3.224840425486361</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>31.78480142100988</v>
+        <v>21.51067326354815</v>
       </c>
       <c r="B6">
-        <v>5.440528413702093</v>
+        <v>5.018779967493132</v>
       </c>
       <c r="C6">
-        <v>40.0419975642183</v>
+        <v>32.34353802907516</v>
       </c>
       <c r="D6">
-        <v>21.7137226743998</v>
+        <v>16.23783626883079</v>
       </c>
       <c r="E6">
-        <v>10.09425078880633</v>
+        <v>9.98443974497361</v>
       </c>
       <c r="F6">
-        <v>14.14878451532522</v>
+        <v>11.73534871064661</v>
       </c>
       <c r="G6">
-        <v>32.77975037962641</v>
+        <v>26.81729297427943</v>
       </c>
       <c r="H6">
-        <v>19.53332749578043</v>
+        <v>13.04876318182388</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>33.59481372548289</v>
+        <v>19.13050872826203</v>
       </c>
       <c r="B7">
-        <v>3.969486232266978</v>
+        <v>0.9243717685624681</v>
       </c>
       <c r="C7">
-        <v>20.46004602747407</v>
+        <v>7.590998256440996</v>
       </c>
       <c r="D7">
-        <v>11.88281743943841</v>
+        <v>3.067144375383862</v>
       </c>
       <c r="E7">
-        <v>6.896165822670329</v>
+        <v>3.104147157711001</v>
       </c>
       <c r="F7">
-        <v>9.934748709437004</v>
+        <v>8.185300033140056</v>
       </c>
       <c r="G7">
-        <v>20.9340057172785</v>
+        <v>7.748923913808928</v>
       </c>
       <c r="H7">
-        <v>19.23650714072551</v>
+        <v>9.26688476399608</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>25.89119683920237</v>
+        <v>20.17999856000266</v>
       </c>
       <c r="B8">
-        <v>6.818701899851592</v>
+        <v>5.126179601132822</v>
       </c>
       <c r="C8">
-        <v>26.03391981688637</v>
+        <v>17.99558465552066</v>
       </c>
       <c r="D8">
-        <v>10.86217184504304</v>
+        <v>9.416967594499317</v>
       </c>
       <c r="E8">
-        <v>16.21173188699821</v>
+        <v>13.89509368972401</v>
       </c>
       <c r="F8">
-        <v>29.4033882935369</v>
+        <v>18.40003550494471</v>
       </c>
       <c r="G8">
-        <v>13.62074506145335</v>
+        <v>11.98359741311303</v>
       </c>
       <c r="H8">
-        <v>48.3512135415184</v>
+        <v>30.48629241012507</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>14.86497706003712</v>
+        <v>5.517511986584521</v>
       </c>
       <c r="B9">
-        <v>5.379655567279873</v>
+        <v>1.406258538370234</v>
       </c>
       <c r="C9">
-        <v>20.40322814753672</v>
+        <v>7.68939011410612</v>
       </c>
       <c r="D9">
-        <v>12.48631092359171</v>
+        <v>2.430175025158531</v>
       </c>
       <c r="E9">
-        <v>10.18889868838285</v>
+        <v>1.610715746696686</v>
       </c>
       <c r="F9">
-        <v>29.59707371909499</v>
+        <v>13.95971294255455</v>
       </c>
       <c r="G9">
-        <v>7.84640248963219</v>
+        <v>2.90353693225002</v>
       </c>
       <c r="H9">
-        <v>74.4364357007877</v>
+        <v>31.03237782684627</v>
       </c>
     </row>
   </sheetData>
